--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ040Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ040Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A4D777-232E-4E64-A8FD-CAC33AD56504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFC9AF-C9CB-4630-9CDA-78BD1A4E7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增,C:異動,R:請求提供債權人清冊</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>NotBankId4</t>
   </si>
   <si>
@@ -339,6 +335,12 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+R:請求提供債權人清冊</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -915,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -936,7 +938,7 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>44</v>
@@ -964,10 +966,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1045,13 +1047,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="18">
         <v>32</v>
@@ -1064,13 +1066,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="18">
         <v>18</v>
@@ -1078,7 +1080,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>3</v>
       </c>
@@ -1096,7 +1098,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H11"/>
     </row>
@@ -1118,7 +1120,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12"/>
     </row>
@@ -1152,17 +1154,17 @@
         <v>36</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="18">
         <v>3</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14"/>
     </row>
@@ -1177,14 +1179,14 @@
         <v>33</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="18">
         <v>3</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15"/>
     </row>
@@ -1199,14 +1201,14 @@
         <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="18">
         <v>3</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16"/>
     </row>
@@ -1221,14 +1223,14 @@
         <v>30</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="18">
         <v>3</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17"/>
     </row>
@@ -1237,20 +1239,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="18">
         <v>3</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18"/>
     </row>
@@ -1259,20 +1261,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="18">
         <v>3</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19"/>
     </row>
@@ -1281,20 +1283,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="18">
         <v>3</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20"/>
     </row>
@@ -1303,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>31</v>
@@ -1894,24 +1896,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
